--- a/grmodel/data/combinations/090618_PC9_TXL_Erl_rawdata.xlsx
+++ b/grmodel/data/combinations/090618_PC9_TXL_Erl_rawdata.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="28109"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ruiyan/Documents/GitHub/ps-growth-model/grmodel/data/combinations/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AB49AB0-D93C-E149-A478-A92DDB1D1814}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="460" windowWidth="24500" windowHeight="16100" activeTab="7"/>
+    <workbookView xWindow="4300" yWindow="460" windowWidth="24500" windowHeight="16100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Conditions" sheetId="9" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <sheet name="overlap_high" sheetId="6" r:id="rId8"/>
     <sheet name="overlap_low" sheetId="2" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="150001"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -157,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -1000,11 +1001,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,7 +1286,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView topLeftCell="G1" zoomScale="89" zoomScaleNormal="89" zoomScalePageLayoutView="89" workbookViewId="0">
@@ -6393,7 +6394,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11501,7 +11502,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView topLeftCell="H1" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="90" workbookViewId="0">
@@ -16609,7 +16610,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -21717,7 +21718,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
@@ -26825,7 +26826,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -31933,10 +31934,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView topLeftCell="F1" workbookViewId="0">
       <selection activeCell="U8" sqref="U8"/>
     </sheetView>
   </sheetViews>
@@ -37041,7 +37042,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:V76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
